--- a/futbol_db.xlsx
+++ b/futbol_db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaafr\Documents\GitHub\futbol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C621CC6-0917-4AF6-93E5-9DE003F1C081}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D279965B-82A7-41D7-8585-338FAB4E3180}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{96AE2DEB-9BD1-45E0-875B-0F3E66C5662B}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
   <si>
     <t>User</t>
   </si>
@@ -83,9 +83,6 @@
     <t>freshness</t>
   </si>
   <si>
-    <t>matchs_played</t>
-  </si>
-  <si>
     <t>cards(1.5)</t>
   </si>
   <si>
@@ -122,51 +119,12 @@
     <t>level</t>
   </si>
   <si>
-    <t>id_team_1</t>
-  </si>
-  <si>
-    <t>id_team_2</t>
-  </si>
-  <si>
-    <t>id_team_3</t>
-  </si>
-  <si>
-    <t>id_team_4</t>
-  </si>
-  <si>
-    <t>id_team_5</t>
-  </si>
-  <si>
-    <t>id_team_6</t>
-  </si>
-  <si>
-    <t>id_team_7</t>
-  </si>
-  <si>
-    <t>id_team_8</t>
-  </si>
-  <si>
-    <t>id_team_9</t>
-  </si>
-  <si>
-    <t>id_team_10</t>
-  </si>
-  <si>
-    <t>id_team_11</t>
-  </si>
-  <si>
-    <t>id_team_12</t>
-  </si>
-  <si>
     <t>points</t>
   </si>
   <si>
     <t>fans</t>
   </si>
   <si>
-    <t>formation</t>
-  </si>
-  <si>
     <t>last_year_place</t>
   </si>
   <si>
@@ -176,39 +134,6 @@
     <t>last_year_elo</t>
   </si>
   <si>
-    <t>id_player_1</t>
-  </si>
-  <si>
-    <t>id_player_2</t>
-  </si>
-  <si>
-    <t>id_player_3</t>
-  </si>
-  <si>
-    <t>id_player_4</t>
-  </si>
-  <si>
-    <t>id_player_5</t>
-  </si>
-  <si>
-    <t>id_player_6</t>
-  </si>
-  <si>
-    <t>id_player_7</t>
-  </si>
-  <si>
-    <t>id_player_8</t>
-  </si>
-  <si>
-    <t>id_player_9</t>
-  </si>
-  <si>
-    <t>id_player_10</t>
-  </si>
-  <si>
-    <t>id_player_11</t>
-  </si>
-  <si>
     <t>id_season</t>
   </si>
   <si>
@@ -248,9 +173,6 @@
     <t>red_card_2</t>
   </si>
   <si>
-    <t>Match Commentary</t>
-  </si>
-  <si>
     <t>id_match</t>
   </si>
   <si>
@@ -282,6 +204,27 @@
   </si>
   <si>
     <t>last_improvement</t>
+  </si>
+  <si>
+    <t>MatchCommentary</t>
+  </si>
+  <si>
+    <t>FormationSetup</t>
+  </si>
+  <si>
+    <t>id_formation</t>
+  </si>
+  <si>
+    <t>id_player</t>
+  </si>
+  <si>
+    <t>matches_played</t>
+  </si>
+  <si>
+    <t>MatchAssignment</t>
+  </si>
+  <si>
+    <t>active</t>
   </si>
 </sst>
 </file>
@@ -297,7 +240,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,12 +250,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,10 +266,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,14 +290,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>971551</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
+      <xdr:colOff>733426</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -378,8 +314,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="3619501" y="504825"/>
-          <a:ext cx="742949" cy="190500"/>
+          <a:off x="3648075" y="457200"/>
+          <a:ext cx="714376" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -461,15 +397,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>704851</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -484,8 +420,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3629025" y="495300"/>
-          <a:ext cx="2619376" cy="200025"/>
+          <a:off x="3657600" y="466725"/>
+          <a:ext cx="2800350" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -567,13 +503,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1285875</xdr:colOff>
+      <xdr:colOff>1276350</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
+      <xdr:colOff>704850</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -590,8 +526,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="9315450" y="495301"/>
-          <a:ext cx="771525" cy="200024"/>
+          <a:off x="9448800" y="495301"/>
+          <a:ext cx="742950" cy="200024"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -698,6 +634,271 @@
         <a:xfrm flipH="1" flipV="1">
           <a:off x="1905000" y="476250"/>
           <a:ext cx="723900" cy="3086100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>790576</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Conector recto de flecha 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98FD9FF7-6B20-407D-9C04-917FFC921FD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1381126" y="2562225"/>
+          <a:ext cx="323849" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Conector recto de flecha 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{872E60FB-0B44-483F-A785-5A7F8F3A282B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1762125" y="485776"/>
+          <a:ext cx="2571750" cy="3257549"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Conector recto de flecha 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D292124F-31C9-4773-8A81-50571C99032D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7286625" y="476250"/>
+          <a:ext cx="3048000" cy="2314576"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Conector recto de flecha 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3AAD076-6AF1-49E2-8A4D-333DD36588A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3638550" y="533400"/>
+          <a:ext cx="2800350" cy="2438400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Conector recto de flecha 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79FF9CFC-1A81-4063-9831-9D1AFB2BF5E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7229475" y="485776"/>
+          <a:ext cx="1104900" cy="561974"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1023,19 +1224,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8760131-4D7D-4ADB-8D56-305E456E9A38}">
-  <dimension ref="B2:L26"/>
+  <dimension ref="B2:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
     <col min="10" max="10" width="19.7109375" customWidth="1"/>
     <col min="12" max="12" width="14.5703125" customWidth="1"/>
   </cols>
@@ -1050,7 +1251,7 @@
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -1084,25 +1285,25 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>76</v>
+      <c r="D4" t="s">
+        <v>50</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="L4" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1111,69 +1312,60 @@
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="H7" t="s">
-        <v>32</v>
-      </c>
       <c r="L7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="H8" t="s">
-        <v>33</v>
-      </c>
       <c r="L8" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -1181,85 +1373,67 @@
       <c r="F9" t="s">
         <v>16</v>
       </c>
-      <c r="H9" t="s">
-        <v>34</v>
-      </c>
       <c r="L9" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="L10" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
-      </c>
-      <c r="H11" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="J11" t="s">
         <v>8</v>
       </c>
       <c r="L11" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="J12" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="L12" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D13" t="s">
-        <v>47</v>
-      </c>
       <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J13" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="L13" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
@@ -1267,16 +1441,16 @@
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" t="s">
-        <v>39</v>
+        <v>19</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="J14" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="L14" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
@@ -1284,46 +1458,40 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H15" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L15" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
       </c>
       <c r="H16" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="L16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
-      </c>
-      <c r="L17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>50</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
@@ -1331,60 +1499,31 @@
       <c r="F18" t="s">
         <v>13</v>
       </c>
-      <c r="L18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
         <v>53</v>
       </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
         <v>54</v>
       </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
